--- a/res2.xlsx
+++ b/res2.xlsx
@@ -445,15 +445,15 @@
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>-0.9899924966004454</v>
+        <v>0.5403023058681398</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[ 0.90929743  0.41211849 -0.95892427]</t>
+          <t>[ 0.90929743 -0.95892427 -0.95892427]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.125133170271123</v>
+        <v>6.998167164941004</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
